--- a/biology/Botanique/En_plein_feu/En_plein_feu.xlsx
+++ b/biology/Botanique/En_plein_feu/En_plein_feu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En plein feu est un film franco-belge réalisé par Quentin Reynaud, sorti en 2022.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que la forêt des Landes est ravagée par des feux, des alertes sont lancées. Simon (Alex Lutz) et son père Joseph (André Dussollier) se voient obligés de quitter leur maison. Ils roulent sous le vent qui se lève et sous le feu difficile à maîtriser. Ils vont se retrouver coincés dans leur voiture en plein milieu d'un feu de forêt cauchemardesque[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que la forêt des Landes est ravagée par des feux, des alertes sont lancées. Simon (Alex Lutz) et son père Joseph (André Dussollier) se voient obligés de quitter leur maison. Ils roulent sous le vent qui se lève et sous le feu difficile à maîtriser. Ils vont se retrouver coincés dans leur voiture en plein milieu d'un feu de forêt cauchemardesque.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance.
@@ -564,9 +580,9 @@
 Format : couleur
 Genres : catastrophe, action, drame, thriller
 Durée : 85 minutes
-Dates de sortie[2] :
+Dates de sortie :
 Royaume-Uni : 13 octobre 2022 (avant-première au festival du film de Londres)
-France, Suisse romande[3] : 8 mars 2023</t>
+France, Suisse romande : 8 mars 2023</t>
         </is>
       </c>
     </row>
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alex Lutz : Simon
 André Dussollier : Joseph
@@ -634,11 +652,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juillet 2021, on apprend que Quentin Reynaud prépare son cinquième film, intitulé Jour 37, avec Alex Lutz et André Dussolier dans les rôles principaux, et que la société de production 22h22 est à la recherche d'une quarantaine de figurants[4], des doublures pour les acteurs principaux[5] et deux adolescents — un garçon et une fille métissés — dans les Landes[6].
-Le tournage débute le 9 août 2021, dans les Landes, notamment aux environs de Sore[7]. Les prises de vues ont également lieu à Louchats et au Cap Ferret (Gironde)[4],[5], ainsi qu'à Angoulême (Charente) en studio pour la reconstitution de la forêt en feu[7]. Le tournage s'achève le 20 septembre 2021[7].
-La musique du film est composée par Delphine Malaussena, pour sa seconde collaboration avec Quentin Reynaud après Cinquième Set (2020)[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2021, on apprend que Quentin Reynaud prépare son cinquième film, intitulé Jour 37, avec Alex Lutz et André Dussolier dans les rôles principaux, et que la société de production 22h22 est à la recherche d'une quarantaine de figurants, des doublures pour les acteurs principaux et deux adolescents — un garçon et une fille métissés — dans les Landes.
+Le tournage débute le 9 août 2021, dans les Landes, notamment aux environs de Sore. Les prises de vues ont également lieu à Louchats et au Cap Ferret (Gironde) ainsi qu'à Angoulême (Charente) en studio pour la reconstitution de la forêt en feu. Le tournage s'achève le 20 septembre 2021.
+La musique du film est composée par Delphine Malaussena, pour sa seconde collaboration avec Quentin Reynaud après Cinquième Set (2020).
 </t>
         </is>
       </c>
@@ -669,9 +689,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Festivals et sortie
-Il est présenté en avant-première mondiale, le 13 octobre 2022, au festival du film de Londres), en Angleterre (Royaume-Uni)[9], ainsi qu'en France, le 24 octobre de la même année au Festival du cinéma méditerranéen de Montpellier[10], le 5 novembre au festival du film d'Arras[11] et le 15 décembre au festival de cinéma européen des Arcs[12].
-Il sort le 8 mars 2023 dans les salles en France[1] et en Suisse romande[3].
+          <t>Festivals et sortie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présenté en avant-première mondiale, le 13 octobre 2022, au festival du film de Londres), en Angleterre (Royaume-Uni), ainsi qu'en France, le 24 octobre de la même année au Festival du cinéma méditerranéen de Montpellier, le 5 novembre au festival du film d'Arras et le 15 décembre au festival de cinéma européen des Arcs.
+Il sort le 8 mars 2023 dans les salles en France et en Suisse romande.
 </t>
         </is>
       </c>
